--- a/data/output/Analisis_categoria_C_y_D/Analisis_Categorias_C_y_D_13022026.xlsx
+++ b/data/output/Analisis_categoria_C_y_D/Analisis_Categorias_C_y_D_13022026.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALMACENAMIENTO\Ivan\viveverde\Trabajos\IA\PROGRAMA_COMPRAS_AUTOMATICAS\SPA\data\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALMACENAMIENTO\Ivan\viveverde\Trabajos\IA\PROGRAMA_COMPRAS_AUTOMATICAS\PRUEBA1\SPA\data\output\Analisis_categoria_C_y_D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FBB28E-2979-4E69-8CB5-B972AC1AB14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC2E244-B95B-4DAE-8BC9-1607869983EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32640" yWindow="-12765" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31140" yWindow="2340" windowWidth="24165" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAF" sheetId="1" r:id="rId1"/>
@@ -5116,8 +5116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5267,7 +5267,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="5">
-        <v>164.45</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5331,7 +5331,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>261.85499999999996</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5348,7 +5348,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="5">
-        <v>2.5300000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5395,7 +5395,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>5.0600000000000005</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5438,7 +5438,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>116.38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5455,7 +5455,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="5">
-        <v>1.2650000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5528,7 +5528,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="5">
-        <v>18.975000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5724,7 +5724,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="5">
-        <v>63.25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5930,7 +5930,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E53" s="6">
         <f>SUM(E5:E52)</f>
-        <v>1753.2899999999995</v>
+        <v>1538.5249999999994</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
